--- a/xlsx/IS-LM模型_intext.xlsx
+++ b/xlsx/IS-LM模型_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%9C%E5%90%88%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典綜合學派</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_IS-LM模型</t>
+    <t>新古典综合学派</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_IS-LM模型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A2%85%E7%BA%B3%E5%BE%B7%C2%B7%E5%87%AF%E6%81%A9%E6%96%AF</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%8A%C2%B7%E5%93%88%E7%BE%85%E5%BE%B7</t>
   </si>
   <si>
-    <t>羅伊·哈羅德</t>
+    <t>罗伊·哈罗德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%8C%E5%85%8B%E6%96%AF</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%A6%E6%B4%BE%E4%B8%8E%E5%92%B8%E6%B0%B4%E5%AD%A6%E6%B4%BE</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BD%97%E5%BE%B7-%E5%A4%9A%E9%A9%AC%E6%A8%A1%E5%9E%8B</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
